--- a/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7810970405021219</v>
+        <v>0.7783045286306246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8363772211927778</v>
+        <v>0.8397280231794332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7768864717024508</v>
+        <v>0.7713977065924615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8307874228483699</v>
+        <v>0.8332860038595432</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8755839857255715</v>
+        <v>0.8726331295089236</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7918651814054608</v>
+        <v>0.7912412823423195</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8151604834876615</v>
+        <v>0.8163647508352885</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.865529453351378</v>
+        <v>0.8628632752452896</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7929100233085854</v>
+        <v>0.7929976228914796</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8387454720302593</v>
+        <v>0.8387568353989868</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8893376162517528</v>
+        <v>0.8900961553384309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8388981224511908</v>
+        <v>0.8357041610345115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8827111877307872</v>
+        <v>0.884308147700117</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9231681044973644</v>
+        <v>0.9191477769405688</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8488739598102735</v>
+        <v>0.8485065192452911</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8528022265887027</v>
+        <v>0.8535307749992423</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8993272755939964</v>
+        <v>0.8979523508232096</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8332428007839148</v>
+        <v>0.8361113470662956</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7090354667269537</v>
+        <v>0.7006759502674371</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7948979875572574</v>
+        <v>0.7972795086491821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7671275739209376</v>
+        <v>0.7648307599024837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7558990141256993</v>
+        <v>0.7570599142598079</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8538322712729691</v>
+        <v>0.8543915120530748</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7805346877377388</v>
+        <v>0.7800668001364247</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7376202903729212</v>
+        <v>0.7398227654592575</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8330174343590201</v>
+        <v>0.832722473196146</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7790512388485468</v>
+        <v>0.7807217993173292</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7672294170300905</v>
+        <v>0.7620656508212175</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8470638646687533</v>
+        <v>0.8447644071022335</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8186719134505637</v>
+        <v>0.8167392569418824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8114801151651928</v>
+        <v>0.8135263164165314</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8986471565713309</v>
+        <v>0.8967113852580963</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8340293430673222</v>
+        <v>0.8310165343850185</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7806095411232471</v>
+        <v>0.779038533393863</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8653316271397005</v>
+        <v>0.8655696108950888</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8174320057033363</v>
+        <v>0.8166651808911981</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7405429096097055</v>
+        <v>0.7405637681779738</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8100038562405935</v>
+        <v>0.8103695162755675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.743992393136271</v>
+        <v>0.743929403755871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7957457193294946</v>
+        <v>0.7983568505092298</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8370425492995348</v>
+        <v>0.8396744180840091</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8172541404674994</v>
+        <v>0.8157160981179866</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7806611333733751</v>
+        <v>0.7807014907806826</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8304477640399166</v>
+        <v>0.8331916892855389</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7913634864044831</v>
+        <v>0.7898667568761133</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8074237352118679</v>
+        <v>0.808439332205197</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8651933263975222</v>
+        <v>0.8635113559133408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8074117387889886</v>
+        <v>0.8081801529652555</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8530775948975352</v>
+        <v>0.8535193998925938</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8873922457370025</v>
+        <v>0.8904878053224092</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.867412513000406</v>
+        <v>0.8670992701032726</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8212799470054796</v>
+        <v>0.8241757760047201</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8702609390833631</v>
+        <v>0.8702355949505545</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8302042734167534</v>
+        <v>0.831052404202246</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.719890963190148</v>
+        <v>0.7165851148508015</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.79588564821813</v>
+        <v>0.7937814642470949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7933590222227386</v>
+        <v>0.7924693489265109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7841110578517648</v>
+        <v>0.782078677505773</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8492813586314628</v>
+        <v>0.8495993884196735</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8383076214707412</v>
+        <v>0.8394724562530783</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7610103247702947</v>
+        <v>0.7600471764200544</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.830082427412163</v>
+        <v>0.8316883476978004</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8272336294958399</v>
+        <v>0.8248278255540207</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7759634047110893</v>
+        <v>0.770581922942837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8451280006932691</v>
+        <v>0.8428341012836736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8428335778321854</v>
+        <v>0.8424457980759923</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8348910365906503</v>
+        <v>0.8314189937633679</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8921579777470298</v>
+        <v>0.8919465737704922</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8834354615422728</v>
+        <v>0.8832033372465117</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7980508292911845</v>
+        <v>0.7954680211011831</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8629001883908806</v>
+        <v>0.8634898283899045</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8595817671378533</v>
+        <v>0.8596157844461337</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8208331059233854</v>
+        <v>0.8194471350238296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7860248371076513</v>
+        <v>0.7845249070426741</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8661523099731465</v>
+        <v>0.8661271599095631</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8213906501999677</v>
+        <v>0.8207376027752409</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8473197714758804</v>
+        <v>0.8475823931239564</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8072745826193918</v>
+        <v>0.8078070045467235</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8471589330775644</v>
+        <v>0.8467680524131014</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8146805223479382</v>
+        <v>0.8141507883786339</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8884237513159238</v>
+        <v>0.8878365702009164</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8463978260736812</v>
+        <v>0.8455225564596968</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.863852179062813</v>
+        <v>0.8648598947793267</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8258342279724606</v>
+        <v>0.8263516886496638</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>541350</v>
+        <v>539415</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>588365</v>
+        <v>590723</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>523428</v>
+        <v>519730</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>571873</v>
+        <v>573593</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>610326</v>
+        <v>608269</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>532798</v>
+        <v>532378</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1126075</v>
+        <v>1127739</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1212190</v>
+        <v>1208456</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1067725</v>
+        <v>1067843</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>581304</v>
+        <v>581312</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>625621</v>
+        <v>626155</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>565208</v>
+        <v>563057</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>607615</v>
+        <v>608714</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>643494</v>
+        <v>640692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>571156</v>
+        <v>570908</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1178074</v>
+        <v>1179080</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1259525</v>
+        <v>1257599</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1122036</v>
+        <v>1125899</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>681211</v>
+        <v>673180</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>806817</v>
+        <v>809234</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>782182</v>
+        <v>779840</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>731206</v>
+        <v>732329</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>880384</v>
+        <v>880961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>811125</v>
+        <v>810638</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1422199</v>
+        <v>1426446</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1704429</v>
+        <v>1703826</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1603923</v>
+        <v>1607363</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>737122</v>
+        <v>732161</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>859765</v>
+        <v>857431</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>834738</v>
+        <v>832767</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>784971</v>
+        <v>786951</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>926592</v>
+        <v>924596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>866716</v>
+        <v>863585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1505086</v>
+        <v>1502057</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1770547</v>
+        <v>1771034</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1682942</v>
+        <v>1681363</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>502465</v>
+        <v>502479</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>611969</v>
+        <v>612246</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>564367</v>
+        <v>564320</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>544164</v>
+        <v>545949</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>648721</v>
+        <v>650761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>641553</v>
+        <v>640346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1063534</v>
+        <v>1063589</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1271025</v>
+        <v>1275225</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1221530</v>
+        <v>1219220</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>547844</v>
+        <v>548533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>653666</v>
+        <v>652395</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>612475</v>
+        <v>613058</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>583369</v>
+        <v>583672</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>687743</v>
+        <v>690142</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>680928</v>
+        <v>680682</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1118871</v>
+        <v>1122816</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1331960</v>
+        <v>1331922</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1281484</v>
+        <v>1282793</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>677662</v>
+        <v>674550</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>754292</v>
+        <v>752298</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>742275</v>
+        <v>741442</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>813622</v>
+        <v>811513</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>889886</v>
+        <v>890219</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>873241</v>
+        <v>874454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1506022</v>
+        <v>1504116</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1656470</v>
+        <v>1659675</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1635673</v>
+        <v>1630916</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>730445</v>
+        <v>725380</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>800961</v>
+        <v>798787</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>788564</v>
+        <v>788201</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>866313</v>
+        <v>862710</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>934812</v>
+        <v>934591</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>920249</v>
+        <v>920007</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1579324</v>
+        <v>1574213</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1721960</v>
+        <v>1723136</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1699635</v>
+        <v>1699702</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2808659</v>
+        <v>2803916</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2662698</v>
+        <v>2657617</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3075683</v>
+        <v>3075593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2906665</v>
+        <v>2904354</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5908097</v>
+        <v>5909928</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5591396</v>
+        <v>5595084</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2898738</v>
+        <v>2897401</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2759771</v>
+        <v>2757977</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3154768</v>
+        <v>3152683</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2995158</v>
+        <v>2992061</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6023373</v>
+        <v>6030399</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5719945</v>
+        <v>5723529</v>
       </c>
     </row>
     <row r="24">
